--- a/萌日記麻雀ルール、思考パラメータ調査.xlsx
+++ b/萌日記麻雀ルール、思考パラメータ調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\mahjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920AF48-36A7-419B-A63E-9C1A8D8B1735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DF5405-4CC4-48CF-B6D5-9EF90043B85F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7890" activeTab="1" xr2:uid="{259B4C33-4889-471E-873A-EE65B9318CBF}"/>
   </bookViews>
@@ -2178,8 +2178,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定されているパラメータ</t>
-    <rPh sb="0" eb="2">
+    <t>キャラパラメータ(未使用)で
+設定されているパラメータ</t>
+    <rPh sb="9" eb="12">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2517,7 +2521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2623,6 +2627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2630,7 +2637,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4541,13 +4548,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE41CFC-5BE6-4657-9280-16B922A5C269}">
-  <dimension ref="B3:K34"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4556,22 +4563,22 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="50.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="37.5" customHeight="1">
       <c r="B3" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="34" t="s">
@@ -5364,18 +5371,18 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="34" t="s">
         <v>176</v>
       </c>

--- a/萌日記麻雀ルール、思考パラメータ調査.xlsx
+++ b/萌日記麻雀ルール、思考パラメータ調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\mahjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DF5405-4CC4-48CF-B6D5-9EF90043B85F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03759213-0DFF-4EAB-A9E4-229A234A3428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7890" activeTab="1" xr2:uid="{259B4C33-4889-471E-873A-EE65B9318CBF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7890" activeTab="4" xr2:uid="{259B4C33-4889-471E-873A-EE65B9318CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ローカルルール" sheetId="1" r:id="rId1"/>
@@ -256,8 +256,50 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{E60B8BA9-2BBA-449B-B8BF-6BA9FE104E44}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>子の場合：42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{E505C0B3-9069-4860-B966-878C9B003578}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>使用牌数の初期値(配牌での使用数)
+親：初期値(79)
+子：初期値(80)
+計算式
+NokoriPai= MJDefine.PAI_MAX- (Bpcnt+ Kancnt); // 残り牌取得</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="296">
   <si>
     <t>食い断ヤオ</t>
   </si>
@@ -2154,10 +2196,6 @@
     <t xml:space="preserve">ツモ切り </t>
   </si>
   <si>
-    <t>　　　　　　　　　　　　　　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定無し</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -2185,6 +2223,124 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ツモ牌数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(122)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使用牌数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カン数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り牌計算式</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り牌について</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2193,7 +2349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2238,6 +2394,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2259,7 +2437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2515,13 +2693,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2624,11 +2813,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2636,8 +2831,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4550,11 +4745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE41CFC-5BE6-4657-9280-16B922A5C269}">
   <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4571,20 +4766,20 @@
       <c r="B3" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="27" t="s">
         <v>212</v>
       </c>
@@ -4661,10 +4856,10 @@
         <v>236</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" s="1">
         <v>-2</v>
@@ -4687,10 +4882,10 @@
         <v>237</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4812,10 +5007,10 @@
         <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="1">
         <v>-6</v>
@@ -4838,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -4862,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -4886,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -4933,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4983,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -5033,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5082,10 +5277,10 @@
         <v>234</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G24" s="1">
         <v>-2</v>
@@ -5371,23 +5566,23 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2">
@@ -5688,7 +5883,7 @@
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5849,11 +6044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252932FF-53FD-4859-80B8-ABEF6DBABC11}">
-  <dimension ref="B3:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252932FF-53FD-4859-80B8-ABEF6DBABC11}">
+  <dimension ref="B3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5861,19 +6056,21 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:9">
       <c r="C3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>277</v>
       </c>
@@ -5886,8 +6083,13 @@
       <c r="E5" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -5900,8 +6102,17 @@
       <c r="E6" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -5914,8 +6125,17 @@
       <c r="E7" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7" s="1">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -5929,7 +6149,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -5943,7 +6163,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -5956,11 +6176,8 @@
       <c r="E10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -5974,7 +6191,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -5988,9 +6205,16 @@
         <v>285</v>
       </c>
     </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="33"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5999,7 +6223,7 @@
   <dimension ref="C3:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75"/>
